--- a/Testdata/Testdata.xlsx
+++ b/Testdata/Testdata.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Guru99 Cred" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>StringColumn</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>GIT1</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>mngr26593</t>
+  </si>
+  <si>
+    <t>ishal!12</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -454,12 +466,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
